--- a/examples/Multi-regional Energy System Workflow/InputData/SpatialData/GeologicalStorage/existingSaltCavernsCapacity_GWh_methane.xlsx
+++ b/examples/Multi-regional Energy System Workflow/InputData/SpatialData/GeologicalStorage/existingSaltCavernsCapacity_GWh_methane.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Models\FINE_GITLAB_TSA\FINE\examples\Multi-regional Energy System Workflow\InputData\SpatialData\GeologicalStorage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,14 +119,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,9 +167,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,7 +239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -422,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4117.387049399199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>74197.169559412549</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>38886.433244325766</v>
+        <v>98202.13618157545</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>37513.970894526035</v>
+        <v>4364.5393858477964</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>64048.242990654202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>914.97489986648861</v>
+        <v>50919.626168224291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3637.1161548731639</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
